--- a/trunk/Document/Design/SDD/SDD_GlobalConfiguration.xlsx
+++ b/trunk/Document/Design/SDD/SDD_GlobalConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="285" windowWidth="19020" windowHeight="8400" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="285" windowWidth="19020" windowHeight="8400" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1544,7 +1544,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="188">
   <si>
     <t>&lt;Project Name&gt;</t>
   </si>
@@ -2099,6 +2099,15 @@
   </si>
   <si>
     <t>Add Events</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>not special character</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2118,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2236,7 +2245,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2988,92 +2997,15 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3111,10 +3043,87 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3423,13 +3432,13 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="14"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="70" style="14" customWidth="1"/>
     <col min="3" max="3" width="9" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="14"/>
+    <col min="4" max="4" width="9.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2" ht="33" x14ac:dyDescent="0.25">
@@ -3472,38 +3481,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3569,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="121">
+      <c r="B8" s="79">
         <v>40831</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3578,7 +3587,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="121">
+      <c r="B9" s="79">
         <v>40831</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3596,7 +3605,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="121">
+      <c r="B10" s="79">
         <v>40832</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3614,7 +3623,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="121">
+      <c r="B11" s="79">
         <v>40832</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3632,7 +3641,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="121">
+      <c r="B12" s="79">
         <v>40833</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3650,7 +3659,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="121">
+      <c r="B13" s="79">
         <v>40833</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3668,7 +3677,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="121">
+      <c r="B14" s="79">
         <v>40835</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3686,7 +3695,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="121">
+      <c r="B15" s="79">
         <v>40835</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3799,23 +3808,23 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="14.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="18" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="18"/>
-    <col min="6" max="6" width="9.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="18"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="14.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
@@ -3870,23 +3879,23 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="18"/>
-    <col min="2" max="2" width="14.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="18"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="14.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="20">
         <v>1</v>
       </c>
@@ -3895,7 +3904,7 @@
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -4067,305 +4076,305 @@
   <dimension ref="B2:BE96"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46:G46"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="3.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="28" customWidth="1"/>
-    <col min="6" max="22" width="3.125" style="28"/>
-    <col min="23" max="23" width="3.25" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="3.125" style="28"/>
+    <col min="1" max="4" width="3.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="28" customWidth="1"/>
+    <col min="6" max="22" width="3.140625" style="28"/>
+    <col min="23" max="23" width="3.28515625" style="28" customWidth="1"/>
+    <col min="24" max="16384" width="3.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+    <row r="2" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="92" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92" t="s">
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
-    </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="95" t="s">
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="104"/>
+      <c r="BE2" s="104"/>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="95"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="96">
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="111">
         <v>40830</v>
       </c>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="95"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
-    </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B4" s="106" t="s">
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B4" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="100" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="94" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="97" t="s">
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="93">
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="102">
         <v>40830</v>
       </c>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="97" t="s">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="93">
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="102">
         <v>40831</v>
       </c>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-    </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="100" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="100" t="s">
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AR5" s="101"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="93">
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="102">
         <v>40834</v>
       </c>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="100" t="s">
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="93">
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="102">
         <v>40834</v>
       </c>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-    </row>
-    <row r="7" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="C7" s="108" t="s">
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C7" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-    </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L9" s="109" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L9" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="50"/>
@@ -4402,10 +4411,10 @@
       <c r="AV9" s="50"/>
       <c r="AW9" s="51"/>
     </row>
-    <row r="10" spans="2:57" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+    <row r="10" spans="2:57" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
@@ -4450,10 +4459,10 @@
       </c>
       <c r="AW10" s="60"/>
     </row>
-    <row r="11" spans="2:57" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="L11" s="113"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
+    <row r="11" spans="2:57" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="54"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="56"/>
@@ -4490,25 +4499,25 @@
       <c r="AV11" s="56"/>
       <c r="AW11" s="57"/>
     </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L12" s="115" t="s">
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L12" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="119" t="s">
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
       <c r="Z12" s="63"/>
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
@@ -4534,21 +4543,21 @@
       <c r="AV12" s="62"/>
       <c r="AW12" s="63"/>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L13" s="117"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L13" s="92"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
@@ -4574,89 +4583,89 @@
       <c r="AV13" s="65"/>
       <c r="AW13" s="66"/>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L15" s="83" t="s">
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L15" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="85"/>
-    </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="88"/>
-    </row>
-    <row r="17" spans="12:49" x14ac:dyDescent="0.2">
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="118"/>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="119"/>
+    </row>
+    <row r="17" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L17" s="61"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -4696,7 +4705,7 @@
       <c r="AV17" s="62"/>
       <c r="AW17" s="63"/>
     </row>
-    <row r="18" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L18" s="44"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -4736,7 +4745,7 @@
       <c r="AV18" s="41"/>
       <c r="AW18" s="72"/>
     </row>
-    <row r="19" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L19" s="44"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
@@ -4756,7 +4765,7 @@
       <c r="AV19" s="41"/>
       <c r="AW19" s="72"/>
     </row>
-    <row r="20" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L20" s="44"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -4800,7 +4809,7 @@
       <c r="AV20" s="41"/>
       <c r="AW20" s="72"/>
     </row>
-    <row r="21" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L21" s="44"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -4840,7 +4849,7 @@
       <c r="AV21" s="41"/>
       <c r="AW21" s="72"/>
     </row>
-    <row r="22" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L22" s="44"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -4884,7 +4893,7 @@
       <c r="AV22" s="41"/>
       <c r="AW22" s="72"/>
     </row>
-    <row r="23" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L23" s="44"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -4924,7 +4933,7 @@
       <c r="AV23" s="41"/>
       <c r="AW23" s="72"/>
     </row>
-    <row r="24" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L24" s="44"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -4964,7 +4973,7 @@
       <c r="AV24" s="41"/>
       <c r="AW24" s="72"/>
     </row>
-    <row r="25" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L25" s="44"/>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -5014,7 +5023,7 @@
       <c r="AV25" s="41"/>
       <c r="AW25" s="72"/>
     </row>
-    <row r="26" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L26" s="44"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
@@ -5054,7 +5063,7 @@
       <c r="AV26" s="41"/>
       <c r="AW26" s="72"/>
     </row>
-    <row r="27" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L27" s="44"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
@@ -5098,7 +5107,7 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="72"/>
     </row>
-    <row r="28" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L28" s="44"/>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
@@ -5138,7 +5147,7 @@
       <c r="AV28" s="41"/>
       <c r="AW28" s="72"/>
     </row>
-    <row r="29" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L29" s="44"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -5178,7 +5187,7 @@
       <c r="AV29" s="41"/>
       <c r="AW29" s="72"/>
     </row>
-    <row r="30" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L30" s="44"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -5222,7 +5231,7 @@
       <c r="AV30" s="41"/>
       <c r="AW30" s="72"/>
     </row>
-    <row r="31" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L31" s="44"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -5262,7 +5271,7 @@
       <c r="AV31" s="41"/>
       <c r="AW31" s="72"/>
     </row>
-    <row r="32" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L32" s="44"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
@@ -5306,7 +5315,7 @@
       <c r="AV32" s="41"/>
       <c r="AW32" s="72"/>
     </row>
-    <row r="33" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L33" s="44"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -5346,7 +5355,7 @@
       <c r="AV33" s="41"/>
       <c r="AW33" s="72"/>
     </row>
-    <row r="34" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L34" s="44"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41"/>
@@ -5386,7 +5395,7 @@
       <c r="AV34" s="41"/>
       <c r="AW34" s="72"/>
     </row>
-    <row r="35" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L35" s="44"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -5426,7 +5435,7 @@
       <c r="AV35" s="41"/>
       <c r="AW35" s="72"/>
     </row>
-    <row r="36" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L36" s="44"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41"/>
@@ -5466,7 +5475,7 @@
       <c r="AV36" s="41"/>
       <c r="AW36" s="72"/>
     </row>
-    <row r="37" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L37" s="64"/>
       <c r="M37" s="65"/>
       <c r="N37" s="65"/>
@@ -5506,97 +5515,97 @@
       <c r="AV37" s="65"/>
       <c r="AW37" s="66"/>
     </row>
-    <row r="46" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C46" s="89" t="s">
+    <row r="46" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C46" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-    </row>
-    <row r="47" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+    </row>
+    <row r="47" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C47" s="49"/>
     </row>
-    <row r="48" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C48" s="120" t="s">
+    <row r="48" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90" t="s">
+      <c r="D48" s="99"/>
+      <c r="E48" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="90" t="s">
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="90"/>
-      <c r="P48" s="90"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="90" t="s">
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="S48" s="90"/>
-      <c r="T48" s="90"/>
-      <c r="U48" s="90" t="s">
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="V48" s="90"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="90" t="s">
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="90"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="90"/>
-      <c r="AC48" s="90"/>
-      <c r="AD48" s="90"/>
-      <c r="AE48" s="90" t="s">
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="99"/>
+      <c r="AC48" s="99"/>
+      <c r="AD48" s="99"/>
+      <c r="AE48" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="AF48" s="90"/>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="90"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="90" t="s">
+      <c r="AF48" s="99"/>
+      <c r="AG48" s="99"/>
+      <c r="AH48" s="99"/>
+      <c r="AI48" s="99"/>
+      <c r="AJ48" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AK48" s="90"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="90" t="s">
+      <c r="AK48" s="99"/>
+      <c r="AL48" s="99"/>
+      <c r="AM48" s="99"/>
+      <c r="AN48" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AO48" s="90"/>
-      <c r="AP48" s="90"/>
-      <c r="AQ48" s="90" t="s">
+      <c r="AO48" s="99"/>
+      <c r="AP48" s="99"/>
+      <c r="AQ48" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AR48" s="90"/>
-      <c r="AS48" s="90"/>
-      <c r="AT48" s="90"/>
-      <c r="AU48" s="90"/>
-      <c r="AV48" s="90"/>
-      <c r="AW48" s="90" t="s">
+      <c r="AR48" s="99"/>
+      <c r="AS48" s="99"/>
+      <c r="AT48" s="99"/>
+      <c r="AU48" s="99"/>
+      <c r="AV48" s="99"/>
+      <c r="AW48" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AX48" s="90"/>
-      <c r="AY48" s="90"/>
-      <c r="AZ48" s="90"/>
-      <c r="BA48" s="90"/>
-      <c r="BB48" s="90"/>
-      <c r="BC48" s="90"/>
-      <c r="BD48" s="91"/>
-    </row>
-    <row r="49" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="AX48" s="99"/>
+      <c r="AY48" s="99"/>
+      <c r="AZ48" s="99"/>
+      <c r="BA48" s="99"/>
+      <c r="BB48" s="99"/>
+      <c r="BC48" s="99"/>
+      <c r="BD48" s="121"/>
+    </row>
+    <row r="49" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="31"/>
       <c r="E49" s="30"/>
@@ -5672,7 +5681,7 @@
       <c r="BC49" s="31"/>
       <c r="BD49" s="34"/>
     </row>
-    <row r="50" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
@@ -5748,7 +5757,7 @@
       <c r="BC50" s="35"/>
       <c r="BD50" s="37"/>
     </row>
-    <row r="51" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="D51" s="35"/>
       <c r="E51" s="36"/>
@@ -5824,7 +5833,7 @@
       <c r="BC51" s="35"/>
       <c r="BD51" s="37"/>
     </row>
-    <row r="52" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C52" s="30"/>
       <c r="D52" s="35"/>
       <c r="E52" s="36"/>
@@ -5900,7 +5909,7 @@
       <c r="BC52" s="35"/>
       <c r="BD52" s="37"/>
     </row>
-    <row r="53" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C53" s="30"/>
       <c r="D53" s="35"/>
       <c r="E53" s="36"/>
@@ -5976,7 +5985,7 @@
       <c r="BC53" s="35"/>
       <c r="BD53" s="37"/>
     </row>
-    <row r="54" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C54" s="30"/>
       <c r="D54" s="35"/>
       <c r="E54" s="36"/>
@@ -6052,7 +6061,7 @@
       <c r="BC54" s="35"/>
       <c r="BD54" s="37"/>
     </row>
-    <row r="55" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C55" s="30"/>
       <c r="D55" s="35"/>
       <c r="E55" s="36"/>
@@ -6094,7 +6103,7 @@
       <c r="AE55" s="36"/>
       <c r="AF55" s="35"/>
       <c r="AG55" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH55" s="35"/>
       <c r="AI55" s="35"/>
@@ -6128,7 +6137,7 @@
       <c r="BC55" s="35"/>
       <c r="BD55" s="37"/>
     </row>
-    <row r="56" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C56" s="30"/>
       <c r="D56" s="35"/>
       <c r="E56" s="36"/>
@@ -6170,7 +6179,7 @@
       <c r="AE56" s="36"/>
       <c r="AF56" s="35"/>
       <c r="AG56" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH56" s="35"/>
       <c r="AI56" s="35"/>
@@ -6204,7 +6213,7 @@
       <c r="BC56" s="35"/>
       <c r="BD56" s="37"/>
     </row>
-    <row r="57" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C57" s="30"/>
       <c r="D57" s="35"/>
       <c r="E57" s="36"/>
@@ -6245,9 +6254,7 @@
       <c r="AD57" s="35"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="35"/>
-      <c r="AG57" s="32" t="s">
-        <v>53</v>
-      </c>
+      <c r="AG57" s="32"/>
       <c r="AH57" s="35"/>
       <c r="AI57" s="35"/>
       <c r="AJ57" s="36"/>
@@ -6280,7 +6287,7 @@
       <c r="BC57" s="35"/>
       <c r="BD57" s="37"/>
     </row>
-    <row r="58" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C58" s="30"/>
       <c r="D58" s="35"/>
       <c r="E58" s="36"/>
@@ -6322,7 +6329,7 @@
       <c r="AE58" s="36"/>
       <c r="AF58" s="35"/>
       <c r="AG58" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH58" s="35"/>
       <c r="AI58" s="35"/>
@@ -6356,7 +6363,7 @@
       <c r="BC58" s="35"/>
       <c r="BD58" s="37"/>
     </row>
-    <row r="59" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C59" s="30"/>
       <c r="D59" s="35"/>
       <c r="E59" s="36"/>
@@ -6432,7 +6439,7 @@
       <c r="BC59" s="35"/>
       <c r="BD59" s="37"/>
     </row>
-    <row r="60" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C60" s="30"/>
       <c r="D60" s="35"/>
       <c r="E60" s="36"/>
@@ -6508,7 +6515,7 @@
       <c r="BC60" s="35"/>
       <c r="BD60" s="37"/>
     </row>
-    <row r="61" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
       <c r="E61" s="38"/>
@@ -6564,7 +6571,7 @@
       <c r="BC61" s="39"/>
       <c r="BD61" s="40"/>
     </row>
-    <row r="62" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -6620,23 +6627,23 @@
       <c r="BC62" s="41"/>
       <c r="BD62" s="41"/>
     </row>
-    <row r="63" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C63" s="89" t="s">
+    <row r="63" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C63" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-    </row>
-    <row r="64" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+    </row>
+    <row r="64" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C64" s="49"/>
     </row>
-    <row r="65" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C65" s="80" t="s">
+    <row r="65" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="81"/>
@@ -6703,7 +6710,7 @@
       <c r="BC65" s="81"/>
       <c r="BD65" s="82"/>
     </row>
-    <row r="66" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C66" s="42"/>
       <c r="D66" s="34"/>
       <c r="E66" s="31"/>
@@ -6769,7 +6776,7 @@
       <c r="BC66" s="31"/>
       <c r="BD66" s="34"/>
     </row>
-    <row r="67" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C67" s="43"/>
       <c r="D67" s="37"/>
       <c r="E67" s="35"/>
@@ -6835,7 +6842,7 @@
       <c r="BC67" s="35"/>
       <c r="BD67" s="37"/>
     </row>
-    <row r="68" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C68" s="43"/>
       <c r="D68" s="37"/>
       <c r="E68" s="35"/>
@@ -6901,7 +6908,7 @@
       <c r="BC68" s="35"/>
       <c r="BD68" s="37"/>
     </row>
-    <row r="69" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C69" s="43"/>
       <c r="D69" s="37"/>
       <c r="E69" s="35"/>
@@ -6967,7 +6974,7 @@
       <c r="BC69" s="35"/>
       <c r="BD69" s="37"/>
     </row>
-    <row r="70" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C70" s="43"/>
       <c r="D70" s="37"/>
       <c r="E70" s="35"/>
@@ -7033,7 +7040,7 @@
       <c r="BC70" s="35"/>
       <c r="BD70" s="37"/>
     </row>
-    <row r="71" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C71" s="43"/>
       <c r="D71" s="37"/>
       <c r="E71" s="35"/>
@@ -7089,7 +7096,7 @@
       <c r="BC71" s="35"/>
       <c r="BD71" s="37"/>
     </row>
-    <row r="72" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C72" s="43"/>
       <c r="D72" s="37"/>
       <c r="E72" s="35"/>
@@ -7145,7 +7152,7 @@
       <c r="BC72" s="35"/>
       <c r="BD72" s="37"/>
     </row>
-    <row r="73" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="35"/>
@@ -7201,7 +7208,7 @@
       <c r="BC73" s="35"/>
       <c r="BD73" s="37"/>
     </row>
-    <row r="74" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="35"/>
@@ -7257,7 +7264,7 @@
       <c r="BC74" s="35"/>
       <c r="BD74" s="37"/>
     </row>
-    <row r="75" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="35"/>
@@ -7313,7 +7320,7 @@
       <c r="BC75" s="35"/>
       <c r="BD75" s="37"/>
     </row>
-    <row r="76" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="35"/>
@@ -7369,7 +7376,7 @@
       <c r="BC76" s="35"/>
       <c r="BD76" s="37"/>
     </row>
-    <row r="77" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
       <c r="E77" s="35"/>
@@ -7425,7 +7432,7 @@
       <c r="BC77" s="35"/>
       <c r="BD77" s="37"/>
     </row>
-    <row r="78" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
       <c r="E78" s="35"/>
@@ -7481,7 +7488,7 @@
       <c r="BC78" s="35"/>
       <c r="BD78" s="37"/>
     </row>
-    <row r="79" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C79" s="36"/>
       <c r="D79" s="37"/>
       <c r="E79" s="35"/>
@@ -7537,7 +7544,7 @@
       <c r="BC79" s="35"/>
       <c r="BD79" s="37"/>
     </row>
-    <row r="80" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C80" s="38"/>
       <c r="D80" s="40"/>
       <c r="E80" s="39"/>
@@ -7593,13 +7600,13 @@
       <c r="BC80" s="39"/>
       <c r="BD80" s="40"/>
     </row>
-    <row r="82" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C82" s="49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C84" s="80" t="s">
+    <row r="84" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C84" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D84" s="81"/>
@@ -7662,7 +7669,7 @@
       <c r="BC84" s="81"/>
       <c r="BD84" s="82"/>
     </row>
-    <row r="85" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C85" s="30"/>
       <c r="D85" s="34"/>
       <c r="E85" s="31"/>
@@ -7724,7 +7731,7 @@
       <c r="BC85" s="31"/>
       <c r="BD85" s="34"/>
     </row>
-    <row r="86" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C86" s="36"/>
       <c r="D86" s="37"/>
       <c r="E86" s="35"/>
@@ -7786,7 +7793,7 @@
       <c r="BC86" s="35"/>
       <c r="BD86" s="37"/>
     </row>
-    <row r="87" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C87" s="36"/>
       <c r="D87" s="37"/>
       <c r="E87" s="35"/>
@@ -7848,7 +7855,7 @@
       <c r="BC87" s="35"/>
       <c r="BD87" s="37"/>
     </row>
-    <row r="88" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C88" s="36"/>
       <c r="D88" s="37"/>
       <c r="E88" s="35"/>
@@ -7910,7 +7917,7 @@
       <c r="BC88" s="35"/>
       <c r="BD88" s="37"/>
     </row>
-    <row r="89" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C89" s="36"/>
       <c r="D89" s="37"/>
       <c r="E89" s="35"/>
@@ -7972,7 +7979,7 @@
       <c r="BC89" s="35"/>
       <c r="BD89" s="37"/>
     </row>
-    <row r="90" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C90" s="36"/>
       <c r="D90" s="37"/>
       <c r="E90" s="35"/>
@@ -8028,7 +8035,7 @@
       <c r="BC90" s="35"/>
       <c r="BD90" s="37"/>
     </row>
-    <row r="91" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C91" s="36"/>
       <c r="D91" s="37"/>
       <c r="E91" s="35"/>
@@ -8084,7 +8091,7 @@
       <c r="BC91" s="35"/>
       <c r="BD91" s="37"/>
     </row>
-    <row r="92" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
       <c r="E92" s="35"/>
@@ -8140,7 +8147,7 @@
       <c r="BC92" s="35"/>
       <c r="BD92" s="37"/>
     </row>
-    <row r="93" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C93" s="36"/>
       <c r="D93" s="37"/>
       <c r="E93" s="35"/>
@@ -8196,7 +8203,7 @@
       <c r="BC93" s="35"/>
       <c r="BD93" s="37"/>
     </row>
-    <row r="94" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C94" s="36"/>
       <c r="D94" s="37"/>
       <c r="E94" s="35"/>
@@ -8252,7 +8259,7 @@
       <c r="BC94" s="35"/>
       <c r="BD94" s="37"/>
     </row>
-    <row r="95" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C95" s="36"/>
       <c r="D95" s="37"/>
       <c r="E95" s="35"/>
@@ -8308,7 +8315,7 @@
       <c r="BC95" s="35"/>
       <c r="BD95" s="37"/>
     </row>
-    <row r="96" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C96" s="38"/>
       <c r="D96" s="40"/>
       <c r="E96" s="39"/>
@@ -8366,40 +8373,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="X65:AD65"/>
-    <mergeCell ref="AE65:AK65"/>
-    <mergeCell ref="AL65:BD65"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="L9:N11"/>
-    <mergeCell ref="L12:S13"/>
-    <mergeCell ref="T12:Y13"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:M48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AT5:AW5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="AX5:BA5"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="E84:Q84"/>
     <mergeCell ref="R84:W84"/>
@@ -8416,6 +8389,40 @@
     <mergeCell ref="AN48:AP48"/>
     <mergeCell ref="AQ48:AV48"/>
     <mergeCell ref="AW48:BD48"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="X65:AD65"/>
+    <mergeCell ref="AE65:AK65"/>
+    <mergeCell ref="AL65:BD65"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="L9:N11"/>
+    <mergeCell ref="L12:S13"/>
+    <mergeCell ref="T12:Y13"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:M48"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
@@ -8433,300 +8440,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BE95"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AS59" sqref="AS59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="3.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="28" customWidth="1"/>
-    <col min="6" max="22" width="3.125" style="28"/>
-    <col min="23" max="23" width="3.25" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="3.125" style="28"/>
+    <col min="1" max="4" width="3.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="28" customWidth="1"/>
+    <col min="6" max="22" width="3.140625" style="28"/>
+    <col min="23" max="23" width="3.28515625" style="28" customWidth="1"/>
+    <col min="24" max="16384" width="3.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+    <row r="2" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="92" t="s">
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92" t="s">
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
-    </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="95" t="s">
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="104"/>
+      <c r="BE2" s="104"/>
+    </row>
+    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="AR3" s="95"/>
-      <c r="AS3" s="95"/>
-      <c r="AT3" s="95"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="95"/>
-      <c r="AW3" s="95"/>
-      <c r="AX3" s="96">
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="111">
         <v>40830</v>
       </c>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="95"/>
-      <c r="BB3" s="95"/>
-      <c r="BC3" s="95"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
-    </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B4" s="106" t="s">
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
+      <c r="BD3" s="110"/>
+      <c r="BE3" s="110"/>
+    </row>
+    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B4" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="100" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="94" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="97" t="s">
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="93">
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="102">
         <v>40830</v>
       </c>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="97" t="s">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="94"/>
-    </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="114"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+    </row>
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="100" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="100" t="s">
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AR5" s="101"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="100" t="s">
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-    </row>
-    <row r="7" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="C7" s="108" t="s">
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+    </row>
+    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="C7" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-    </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L9" s="109" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+    </row>
+    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L9" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="50"/>
@@ -8763,10 +8770,10 @@
       <c r="AV9" s="50"/>
       <c r="AW9" s="51"/>
     </row>
-    <row r="10" spans="2:57" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
+    <row r="10" spans="2:57" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
@@ -8811,10 +8818,10 @@
       </c>
       <c r="AW10" s="60"/>
     </row>
-    <row r="11" spans="2:57" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="L11" s="113"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
+    <row r="11" spans="2:57" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="L11" s="88"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="54"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="56"/>
@@ -8851,25 +8858,25 @@
       <c r="AV11" s="56"/>
       <c r="AW11" s="57"/>
     </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L12" s="119" t="s">
+    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L12" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="115" t="s">
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
       <c r="Z12" s="77"/>
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
@@ -8895,21 +8902,21 @@
       <c r="AV12" s="62"/>
       <c r="AW12" s="63"/>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
+    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
       <c r="Z13" s="78"/>
       <c r="AA13" s="65"/>
       <c r="AB13" s="65"/>
@@ -8935,89 +8942,89 @@
       <c r="AV13" s="65"/>
       <c r="AW13" s="66"/>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L15" s="83" t="s">
+    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L15" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="85"/>
-    </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="88"/>
-    </row>
-    <row r="17" spans="12:49" x14ac:dyDescent="0.2">
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="118"/>
+    </row>
+    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="119"/>
+    </row>
+    <row r="17" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L17" s="61"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
@@ -9057,7 +9064,7 @@
       <c r="AV17" s="62"/>
       <c r="AW17" s="63"/>
     </row>
-    <row r="18" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L18" s="44"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
@@ -9097,7 +9104,7 @@
       <c r="AV18" s="41"/>
       <c r="AW18" s="72"/>
     </row>
-    <row r="19" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L19" s="44"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41" t="s">
@@ -9141,7 +9148,7 @@
       <c r="AV19" s="41"/>
       <c r="AW19" s="72"/>
     </row>
-    <row r="20" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L20" s="44"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
@@ -9181,7 +9188,7 @@
       <c r="AV20" s="41"/>
       <c r="AW20" s="72"/>
     </row>
-    <row r="21" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L21" s="44"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41" t="s">
@@ -9225,7 +9232,7 @@
       <c r="AV21" s="41"/>
       <c r="AW21" s="72"/>
     </row>
-    <row r="22" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L22" s="44"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -9265,7 +9272,7 @@
       <c r="AV22" s="41"/>
       <c r="AW22" s="72"/>
     </row>
-    <row r="23" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L23" s="44"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41" t="s">
@@ -9309,7 +9316,7 @@
       <c r="AV23" s="41"/>
       <c r="AW23" s="72"/>
     </row>
-    <row r="24" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L24" s="44"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -9349,7 +9356,7 @@
       <c r="AV24" s="41"/>
       <c r="AW24" s="72"/>
     </row>
-    <row r="25" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L25" s="44"/>
       <c r="M25" s="41"/>
       <c r="N25" s="41" t="s">
@@ -9393,7 +9400,7 @@
       <c r="AV25" s="41"/>
       <c r="AW25" s="72"/>
     </row>
-    <row r="26" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L26" s="44"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
@@ -9433,7 +9440,7 @@
       <c r="AV26" s="41"/>
       <c r="AW26" s="72"/>
     </row>
-    <row r="27" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L27" s="44"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41" t="s">
@@ -9477,7 +9484,7 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="72"/>
     </row>
-    <row r="28" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L28" s="64"/>
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
@@ -9517,7 +9524,7 @@
       <c r="AV28" s="65"/>
       <c r="AW28" s="66"/>
     </row>
-    <row r="29" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L29" s="61"/>
       <c r="M29" s="62"/>
       <c r="N29" s="62"/>
@@ -9557,7 +9564,7 @@
       <c r="AV29" s="62"/>
       <c r="AW29" s="63"/>
     </row>
-    <row r="30" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L30" s="44"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41" t="s">
@@ -9607,7 +9614,7 @@
       <c r="AV30" s="41"/>
       <c r="AW30" s="72"/>
     </row>
-    <row r="31" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L31" s="44"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
@@ -9647,7 +9654,7 @@
       <c r="AV31" s="41"/>
       <c r="AW31" s="72"/>
     </row>
-    <row r="32" spans="12:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:49" x14ac:dyDescent="0.25">
       <c r="L32" s="44"/>
       <c r="M32" s="41"/>
       <c r="N32" s="41" t="s">
@@ -9691,7 +9698,7 @@
       <c r="AV32" s="41"/>
       <c r="AW32" s="72"/>
     </row>
-    <row r="33" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L33" s="44"/>
       <c r="M33" s="41"/>
       <c r="N33" s="41"/>
@@ -9731,7 +9738,7 @@
       <c r="AV33" s="41"/>
       <c r="AW33" s="72"/>
     </row>
-    <row r="34" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L34" s="44"/>
       <c r="M34" s="41"/>
       <c r="N34" s="41" t="s">
@@ -9773,7 +9780,7 @@
       <c r="AV34" s="41"/>
       <c r="AW34" s="72"/>
     </row>
-    <row r="35" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L35" s="44"/>
       <c r="M35" s="41"/>
       <c r="N35" s="41"/>
@@ -9813,7 +9820,7 @@
       <c r="AV35" s="41"/>
       <c r="AW35" s="72"/>
     </row>
-    <row r="36" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L36" s="44"/>
       <c r="M36" s="41"/>
       <c r="N36" s="41" t="s">
@@ -9855,7 +9862,7 @@
       <c r="AV36" s="41"/>
       <c r="AW36" s="72"/>
     </row>
-    <row r="37" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L37" s="44"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -9895,7 +9902,7 @@
       <c r="AV37" s="41"/>
       <c r="AW37" s="72"/>
     </row>
-    <row r="38" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L38" s="44"/>
       <c r="M38" s="41"/>
       <c r="N38" s="41"/>
@@ -9935,7 +9942,7 @@
       <c r="AV38" s="41"/>
       <c r="AW38" s="72"/>
     </row>
-    <row r="39" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L39" s="44"/>
       <c r="M39" s="41"/>
       <c r="N39" s="41"/>
@@ -9975,7 +9982,7 @@
       <c r="AV39" s="41"/>
       <c r="AW39" s="72"/>
     </row>
-    <row r="40" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:56" x14ac:dyDescent="0.25">
       <c r="L40" s="64"/>
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
@@ -10015,97 +10022,97 @@
       <c r="AV40" s="65"/>
       <c r="AW40" s="66"/>
     </row>
-    <row r="41" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C41" s="89" t="s">
+    <row r="41" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C41" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-    </row>
-    <row r="42" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+    </row>
+    <row r="42" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
     </row>
-    <row r="43" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C43" s="120" t="s">
+    <row r="43" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C43" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90" t="s">
+      <c r="D43" s="99"/>
+      <c r="E43" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90" t="s">
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90" t="s">
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
+      <c r="R43" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="90"/>
-      <c r="T43" s="90"/>
-      <c r="U43" s="90" t="s">
+      <c r="S43" s="99"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="V43" s="90"/>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90" t="s">
+      <c r="V43" s="99"/>
+      <c r="W43" s="99"/>
+      <c r="X43" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="Y43" s="90"/>
-      <c r="Z43" s="90"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="90"/>
-      <c r="AD43" s="90"/>
-      <c r="AE43" s="90" t="s">
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="99"/>
+      <c r="AB43" s="99"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="99"/>
+      <c r="AE43" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="AF43" s="90"/>
-      <c r="AG43" s="90"/>
-      <c r="AH43" s="90"/>
-      <c r="AI43" s="90"/>
-      <c r="AJ43" s="90" t="s">
+      <c r="AF43" s="99"/>
+      <c r="AG43" s="99"/>
+      <c r="AH43" s="99"/>
+      <c r="AI43" s="99"/>
+      <c r="AJ43" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="AK43" s="90"/>
-      <c r="AL43" s="90"/>
-      <c r="AM43" s="90"/>
-      <c r="AN43" s="90" t="s">
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AO43" s="90"/>
-      <c r="AP43" s="90"/>
-      <c r="AQ43" s="90" t="s">
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AR43" s="90"/>
-      <c r="AS43" s="90"/>
-      <c r="AT43" s="90"/>
-      <c r="AU43" s="90"/>
-      <c r="AV43" s="90"/>
-      <c r="AW43" s="90" t="s">
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="99"/>
+      <c r="AV43" s="99"/>
+      <c r="AW43" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AX43" s="90"/>
-      <c r="AY43" s="90"/>
-      <c r="AZ43" s="90"/>
-      <c r="BA43" s="90"/>
-      <c r="BB43" s="90"/>
-      <c r="BC43" s="90"/>
-      <c r="BD43" s="91"/>
-    </row>
-    <row r="44" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="AX43" s="99"/>
+      <c r="AY43" s="99"/>
+      <c r="AZ43" s="99"/>
+      <c r="BA43" s="99"/>
+      <c r="BB43" s="99"/>
+      <c r="BC43" s="99"/>
+      <c r="BD43" s="121"/>
+    </row>
+    <row r="44" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="31"/>
       <c r="E44" s="30"/>
@@ -10181,7 +10188,7 @@
       <c r="BC44" s="31"/>
       <c r="BD44" s="34"/>
     </row>
-    <row r="45" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C45" s="30"/>
       <c r="D45" s="35"/>
       <c r="E45" s="36"/>
@@ -10257,7 +10264,7 @@
       <c r="BC45" s="35"/>
       <c r="BD45" s="37"/>
     </row>
-    <row r="46" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C46" s="30"/>
       <c r="D46" s="35"/>
       <c r="E46" s="36"/>
@@ -10333,7 +10340,7 @@
       <c r="BC46" s="35"/>
       <c r="BD46" s="37"/>
     </row>
-    <row r="47" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C47" s="30"/>
       <c r="D47" s="35"/>
       <c r="E47" s="36"/>
@@ -10409,7 +10416,7 @@
       <c r="BC47" s="35"/>
       <c r="BD47" s="37"/>
     </row>
-    <row r="48" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
@@ -10485,7 +10492,7 @@
       <c r="BC48" s="35"/>
       <c r="BD48" s="37"/>
     </row>
-    <row r="49" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C49" s="30"/>
       <c r="D49" s="35"/>
       <c r="E49" s="36"/>
@@ -10561,7 +10568,7 @@
       <c r="BC49" s="35"/>
       <c r="BD49" s="37"/>
     </row>
-    <row r="50" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C50" s="30"/>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
@@ -10637,7 +10644,7 @@
       <c r="BC50" s="35"/>
       <c r="BD50" s="37"/>
     </row>
-    <row r="51" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C51" s="30"/>
       <c r="D51" s="35"/>
       <c r="E51" s="36"/>
@@ -10713,7 +10720,7 @@
       <c r="BC51" s="35"/>
       <c r="BD51" s="37"/>
     </row>
-    <row r="52" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C52" s="30"/>
       <c r="D52" s="35"/>
       <c r="E52" s="36"/>
@@ -10789,7 +10796,7 @@
       <c r="BC52" s="35"/>
       <c r="BD52" s="37"/>
     </row>
-    <row r="53" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C53" s="30"/>
       <c r="D53" s="35"/>
       <c r="E53" s="36"/>
@@ -10865,7 +10872,7 @@
       <c r="BC53" s="35"/>
       <c r="BD53" s="37"/>
     </row>
-    <row r="54" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C54" s="30"/>
       <c r="D54" s="35"/>
       <c r="E54" s="36"/>
@@ -10941,7 +10948,7 @@
       <c r="BC54" s="35"/>
       <c r="BD54" s="37"/>
     </row>
-    <row r="55" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C55" s="30"/>
       <c r="D55" s="35"/>
       <c r="E55" s="36"/>
@@ -11017,7 +11024,7 @@
       <c r="BC55" s="35"/>
       <c r="BD55" s="37"/>
     </row>
-    <row r="56" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C56" s="44"/>
       <c r="D56" s="45"/>
       <c r="E56" s="46"/>
@@ -11059,7 +11066,7 @@
       <c r="AE56" s="46"/>
       <c r="AF56" s="45"/>
       <c r="AG56" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH56" s="45"/>
       <c r="AI56" s="45"/>
@@ -11093,7 +11100,7 @@
       <c r="BC56" s="45"/>
       <c r="BD56" s="48"/>
     </row>
-    <row r="57" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C57" s="44"/>
       <c r="D57" s="45"/>
       <c r="E57" s="46"/>
@@ -11135,7 +11142,7 @@
       <c r="AE57" s="46"/>
       <c r="AF57" s="45"/>
       <c r="AG57" s="32" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="AH57" s="45"/>
       <c r="AI57" s="45"/>
@@ -11169,7 +11176,7 @@
       <c r="BC57" s="45"/>
       <c r="BD57" s="48"/>
     </row>
-    <row r="58" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C58" s="44"/>
       <c r="D58" s="45"/>
       <c r="E58" s="46"/>
@@ -11211,7 +11218,7 @@
       <c r="AE58" s="46"/>
       <c r="AF58" s="45"/>
       <c r="AG58" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH58" s="45"/>
       <c r="AI58" s="45"/>
@@ -11229,7 +11236,7 @@
       <c r="AQ58" s="46"/>
       <c r="AR58" s="45"/>
       <c r="AS58" s="32" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="AT58" s="35"/>
       <c r="AU58" s="45"/>
@@ -11245,7 +11252,7 @@
       <c r="BC58" s="45"/>
       <c r="BD58" s="48"/>
     </row>
-    <row r="59" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C59" s="44"/>
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
@@ -11287,7 +11294,7 @@
       <c r="AE59" s="46"/>
       <c r="AF59" s="45"/>
       <c r="AG59" s="32" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="AH59" s="45"/>
       <c r="AI59" s="45"/>
@@ -11321,7 +11328,7 @@
       <c r="BC59" s="45"/>
       <c r="BD59" s="48"/>
     </row>
-    <row r="60" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
       <c r="E60" s="38"/>
@@ -11377,7 +11384,7 @@
       <c r="BC60" s="39"/>
       <c r="BD60" s="40"/>
     </row>
-    <row r="61" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
@@ -11433,23 +11440,23 @@
       <c r="BC61" s="41"/>
       <c r="BD61" s="41"/>
     </row>
-    <row r="62" spans="3:56" x14ac:dyDescent="0.2">
-      <c r="C62" s="89" t="s">
+    <row r="62" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="C62" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-    </row>
-    <row r="63" spans="3:56" x14ac:dyDescent="0.2">
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+    </row>
+    <row r="63" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C63" s="29"/>
     </row>
-    <row r="64" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C64" s="80" t="s">
+    <row r="64" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C64" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="81"/>
@@ -11516,7 +11523,7 @@
       <c r="BC64" s="81"/>
       <c r="BD64" s="82"/>
     </row>
-    <row r="65" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C65" s="42"/>
       <c r="D65" s="34"/>
       <c r="E65" s="31"/>
@@ -11580,7 +11587,7 @@
       <c r="BC65" s="31"/>
       <c r="BD65" s="34"/>
     </row>
-    <row r="66" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C66" s="43"/>
       <c r="D66" s="37"/>
       <c r="E66" s="35"/>
@@ -11644,7 +11651,7 @@
       <c r="BC66" s="35"/>
       <c r="BD66" s="37"/>
     </row>
-    <row r="67" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C67" s="43"/>
       <c r="D67" s="37"/>
       <c r="E67" s="35"/>
@@ -11708,7 +11715,7 @@
       <c r="BC67" s="35"/>
       <c r="BD67" s="37"/>
     </row>
-    <row r="68" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C68" s="43"/>
       <c r="D68" s="37"/>
       <c r="E68" s="35"/>
@@ -11772,7 +11779,7 @@
       <c r="BC68" s="35"/>
       <c r="BD68" s="37"/>
     </row>
-    <row r="69" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C69" s="43"/>
       <c r="D69" s="37"/>
       <c r="E69" s="35"/>
@@ -11836,7 +11843,7 @@
       <c r="BC69" s="35"/>
       <c r="BD69" s="37"/>
     </row>
-    <row r="70" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C70" s="43"/>
       <c r="D70" s="37"/>
       <c r="E70" s="35"/>
@@ -11900,7 +11907,7 @@
       <c r="BC70" s="35"/>
       <c r="BD70" s="37"/>
     </row>
-    <row r="71" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C71" s="43"/>
       <c r="D71" s="37"/>
       <c r="E71" s="35"/>
@@ -11964,7 +11971,7 @@
       <c r="BC71" s="35"/>
       <c r="BD71" s="37"/>
     </row>
-    <row r="72" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
       <c r="E72" s="35"/>
@@ -12028,7 +12035,7 @@
       <c r="BC72" s="35"/>
       <c r="BD72" s="37"/>
     </row>
-    <row r="73" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="35"/>
@@ -12092,7 +12099,7 @@
       <c r="BC73" s="35"/>
       <c r="BD73" s="37"/>
     </row>
-    <row r="74" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="35"/>
@@ -12156,7 +12163,7 @@
       <c r="BC74" s="35"/>
       <c r="BD74" s="37"/>
     </row>
-    <row r="75" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="35"/>
@@ -12220,7 +12227,7 @@
       <c r="BC75" s="35"/>
       <c r="BD75" s="37"/>
     </row>
-    <row r="76" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="35"/>
@@ -12276,7 +12283,7 @@
       <c r="BC76" s="35"/>
       <c r="BD76" s="37"/>
     </row>
-    <row r="77" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
       <c r="E77" s="35"/>
@@ -12332,7 +12339,7 @@
       <c r="BC77" s="35"/>
       <c r="BD77" s="37"/>
     </row>
-    <row r="78" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
       <c r="E78" s="35"/>
@@ -12388,7 +12395,7 @@
       <c r="BC78" s="35"/>
       <c r="BD78" s="37"/>
     </row>
-    <row r="79" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C79" s="38"/>
       <c r="D79" s="40"/>
       <c r="E79" s="39"/>
@@ -12444,13 +12451,13 @@
       <c r="BC79" s="39"/>
       <c r="BD79" s="40"/>
     </row>
-    <row r="81" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C81" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="3:56" ht="15" x14ac:dyDescent="0.2">
-      <c r="C83" s="80" t="s">
+    <row r="83" spans="3:56" ht="15" x14ac:dyDescent="0.25">
+      <c r="C83" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="81"/>
@@ -12513,7 +12520,7 @@
       <c r="BC83" s="81"/>
       <c r="BD83" s="82"/>
     </row>
-    <row r="84" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C84" s="30"/>
       <c r="D84" s="34"/>
       <c r="E84" s="31"/>
@@ -12575,7 +12582,7 @@
       <c r="BC84" s="31"/>
       <c r="BD84" s="34"/>
     </row>
-    <row r="85" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="35"/>
@@ -12637,7 +12644,7 @@
       <c r="BC85" s="35"/>
       <c r="BD85" s="37"/>
     </row>
-    <row r="86" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C86" s="36"/>
       <c r="D86" s="37"/>
       <c r="E86" s="35"/>
@@ -12699,7 +12706,7 @@
       <c r="BC86" s="35"/>
       <c r="BD86" s="37"/>
     </row>
-    <row r="87" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C87" s="36"/>
       <c r="D87" s="37"/>
       <c r="E87" s="35"/>
@@ -12761,7 +12768,7 @@
       <c r="BC87" s="35"/>
       <c r="BD87" s="37"/>
     </row>
-    <row r="88" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C88" s="36"/>
       <c r="D88" s="37"/>
       <c r="E88" s="35"/>
@@ -12823,7 +12830,7 @@
       <c r="BC88" s="35"/>
       <c r="BD88" s="37"/>
     </row>
-    <row r="89" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C89" s="36"/>
       <c r="D89" s="37"/>
       <c r="E89" s="35"/>
@@ -12879,7 +12886,7 @@
       <c r="BC89" s="35"/>
       <c r="BD89" s="37"/>
     </row>
-    <row r="90" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C90" s="36"/>
       <c r="D90" s="37"/>
       <c r="E90" s="35"/>
@@ -12935,7 +12942,7 @@
       <c r="BC90" s="35"/>
       <c r="BD90" s="37"/>
     </row>
-    <row r="91" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C91" s="36"/>
       <c r="D91" s="37"/>
       <c r="E91" s="35"/>
@@ -12991,7 +12998,7 @@
       <c r="BC91" s="35"/>
       <c r="BD91" s="37"/>
     </row>
-    <row r="92" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
       <c r="E92" s="35"/>
@@ -13047,7 +13054,7 @@
       <c r="BC92" s="35"/>
       <c r="BD92" s="37"/>
     </row>
-    <row r="93" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C93" s="36"/>
       <c r="D93" s="37"/>
       <c r="E93" s="35"/>
@@ -13103,7 +13110,7 @@
       <c r="BC93" s="35"/>
       <c r="BD93" s="37"/>
     </row>
-    <row r="94" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C94" s="36"/>
       <c r="D94" s="37"/>
       <c r="E94" s="35"/>
@@ -13159,7 +13166,7 @@
       <c r="BC94" s="35"/>
       <c r="BD94" s="37"/>
     </row>
-    <row r="95" spans="3:56" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C95" s="38"/>
       <c r="D95" s="40"/>
       <c r="E95" s="39"/>
@@ -13217,6 +13224,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="L9:N11"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:AP3"/>
+    <mergeCell ref="AQ2:AW2"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="U5:AP5"/>
+    <mergeCell ref="AT5:AW5"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BB5:BE5"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AQ5:AS5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="U4:AP4"/>
+    <mergeCell ref="L12:S13"/>
+    <mergeCell ref="T12:Y13"/>
+    <mergeCell ref="L15:AW16"/>
+    <mergeCell ref="AL64:BD64"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AN43:AP43"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:Q83"/>
     <mergeCell ref="R83:W83"/>
@@ -13233,40 +13274,6 @@
     <mergeCell ref="R64:W64"/>
     <mergeCell ref="X64:AD64"/>
     <mergeCell ref="AE64:AK64"/>
-    <mergeCell ref="AL64:BD64"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="BB5:BE5"/>
-    <mergeCell ref="AX4:BA4"/>
-    <mergeCell ref="AX5:BA5"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="AQ5:AS5"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="U4:AP4"/>
-    <mergeCell ref="L12:S13"/>
-    <mergeCell ref="T12:Y13"/>
-    <mergeCell ref="L15:AW16"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="L9:N11"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:AP3"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="U5:AP5"/>
-    <mergeCell ref="AT5:AW5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
